--- a/Extracted_Results.xlsx
+++ b/Extracted_Results.xlsx
@@ -491,17 +491,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ظ شاميه علاء محمد سيد احمد</t>
+          <t>شاميهة علاء محمد سيد احمد هسح</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>122017</t>
+          <t>1220175</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1471202210</t>
+          <t>14712022101</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>حلمي علي ريان</t>
+          <t>ددم حلمي علي ريان</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>حين محد ماه يهاظين</t>
+          <t>حسين محمد ماهر بهاءالدين</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>محمد منير عبدالحميد كمال</t>
+          <t>محمد منير عبدالحميد كمال القت</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14715222101392</t>
+          <t>14712522101392</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>معاذ امام احمد امام احمد</t>
+          <t>معاد امام احمد امام احمد ظ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>سكسسس</t>
+          <t>ظ نغم طارق محمد احمد قاسم</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ظ يوسف عمرو سيد كمال محمود محمد</t>
+          <t>يوسف عمرو سيد كمال محمود محمد</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>عمر محمد محمود صفوت احمد سعد الدين</t>
+          <t>ظ عمر محمد محمود صفوت احمد سعد الدين</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>هى مم يي</t>
+          <t>فادى سامى نبيل داود</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14712022100643</t>
+          <t>1471202210078</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>احمد مدحت عبدالعزيز على عوض الله</t>
+          <t>ظ احمد مدحت عبدالعزيز على عوض</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>مروان عمرو عبدالمجيد فؤاد احمد شكرى ك</t>
+          <t>مروان عمرو عبدالمجيد فؤاد احمد شكرى</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>عبدالله محمد جمال الدين احمد مصطفى</t>
+          <t>ن احمد مصطفى عبدالله محمد جمال الدين</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>رغد وليد محمد نبيه فرج حسن</t>
+          <t>دغ وليد محمد نبيه فرج حمسن</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>كريم محمد نجم الدين حمدي عفيفي</t>
+          <t>كريم محمد نجم الدين حمدي عفيقي</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ظ عمرو ايهاب مختار فرحات</t>
+          <t>عمرو ايهاب مختار فرحلا</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>اوه مفاء م يه</t>
+          <t>أ محمد تامر عبدالعزيز سالم</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>15257</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>اقيم أحمد ايزاهيم السروى</t>
+          <t>ظ عمر ايراهيم احمد ابراهيم السروى</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14712019101776</t>
+          <t>14712019101774</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ا سي ادن اه</t>
+          <t>هشام سيد سالم احمد ه</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>د حنين محمد اسماعيل محمد حماده</t>
+          <t>ظ حنين محمد اسماعيل محمد حماده</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ظ امير سليم سليمان سليمان موسى</t>
+          <t>امير سليم سليمان سليمان موسى</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>محمد عبدائرحيم سالم عبدائهادي</t>
+          <t>ظ محمد عبدالرحيم سالم عبدالهادي</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ظ حسن حسام حسن حامد عبد الفتاح</t>
+          <t>حسن حسام حسن حامد عبد الفتاح تسم</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>زياد ايهاب محمد ممدوح نافع</t>
+          <t>زياد ايهاب محمد ممدوج ناقع</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>سلمى احمد عبدا لرحيم محمد</t>
+          <t>مللمى احمد عبدادرحيم مظ زابئة</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ظ ابرا هيم محمود ابراهيم عبدالمعطى</t>
+          <t>ظ ابراهيم محمود ابراهيم عبدالمعطى</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>يحي محمود نصر محمود ا</t>
+          <t>يحي مصود تصب صمت</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1200454</t>
+          <t>14754</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>سلنى محمد ابراهيم قتحي ابوريدة</t>
+          <t>سلمى محمد ابراهيم فتحى ابوريده</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>حسن عمرو مصطفي محمد يوسف</t>
+          <t>خسن عمرو مصطفي محمد يوسسف</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>الأمد سمح صبحي لقتاةتترت حا</t>
+          <t>لأس سمح صبحي لقاو</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ظ محمد احمد فهيم عبدالفتاح</t>
+          <t>فهيم عبدالفتاح محمد احمد ثهيم عد</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>احمد محمد حسين الكومى حتقم</t>
+          <t>احمد محمد حسين الكومى مطصر</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>لينه بهيج محروس بهيج</t>
+          <t>ايددبيج مر يوس</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1471202210177</t>
+          <t>14712022101345</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>احمد اننامح صادح مصيدكن</t>
+          <t>مسيلحى احمد سامح صلاح</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>جنى ايمن وفاتى محمد عيبس</t>
+          <t>أجنى ايمن وفانى محمد عيسى</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0210349</t>
+          <t>1210349</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1472021101568</t>
+          <t>14712021101568</t>
         </is>
       </c>
     </row>

--- a/Extracted_Results.xlsx
+++ b/Extracted_Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="43" customWidth="1" min="2" max="2"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
   </cols>
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>شاميهة علاء محمد سيد احمد هسح</t>
+          <t>شاميه علاء محمد سيد احمد</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ددم حلمي علي ريان</t>
+          <t>حلمي علي ريان</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>محمد منير عبدالحميد كمال القت</t>
+          <t>محمد منير عبدالحميد كمال</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>يوسف محمد حمدى محمد عثمان</t>
+          <t>يوسف محمد حمدى محمل عثمان</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>معاد امام احمد امام احمد ظ</t>
+          <t>معاذ امام احمد امام احمد</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ظ نغم طارق محمد احمد قاسم</t>
+          <t>نغم طارق مجمد احمد قاسم</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ظ يوسف محمد حمزه محمد عبدالتواب</t>
+          <t>يوسف محمل حمزه محمد عبدالتواب</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ظ عمر محمد محمود صفوت احمد سعد الدين</t>
+          <t>عمر محمد محمود صفوت احمد سعد الدين</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ظ عبد الرحمن على السيد محمد السيد الحديدى</t>
+          <t>عبد الرحمن على السيد محما السيد الحديدى</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>فادى سامى نبيل داود</t>
+          <t>فادى دامى نبيل داود</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ظ احمد مدحت عبدالعزيز على عوض</t>
+          <t>احمد مدحت عبدالعزيز على عوض</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>مروان عمرو عبدالمجيد فؤاد احمد شكرى</t>
+          <t>مروان عمرو عبدالمجبد فزاد احمد نكرى</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ن احمد مصطفى عبدالله محمد جمال الدين</t>
+          <t>عبدالله محمد جمال الدين احمد مصطفى</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>دغ وليد محمد نبيه فرج حمسن</t>
+          <t>رغد وليد محمد نبيه فرج حسن</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>كريم محمد نجم الدين حمدي عفيقي</t>
+          <t>كريم دمد نجم الدين حمدي عفيفي</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>عمرو ايهاب مختار فرحلا</t>
+          <t>عمرو ايهاب مختار فرحات</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ظ سارة محمد مصطفى جوده زهير</t>
+          <t>سارة محمد مصطفى جوده زهير</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>أ محمد تامر عبدالعزيز سالم</t>
+          <t>محمد تامر عبدالعزيز سالم</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>يوسف احمد عفيفي منصور</t>
+          <t>ادهم احمد محمود ممدوح شبانة</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1200883</t>
+          <t>1230157</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15257</t>
+          <t>14712023101281</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ظ عمر ايراهيم احمد ابراهيم السروى</t>
+          <t>عمر ابراهيم احمد ابرا اميم السروى</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>هشام سيد سالم احمد ه</t>
+          <t>احمد هشام سيل سالم</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ظ حنين محمد اسماعيل محمد حماده</t>
+          <t>حنين محمد اسماعيل محمد حماده</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ظ محمد عبدالرحيم سالم عبدالهادي</t>
+          <t>مدمد عبدالر حيم مالم عبدالهادي</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>حسن حسام حسن حامد عبد الفتاح تسم</t>
+          <t>حسن حسام حسن حامد عبل الفتاح</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>زياد ايهاب محمد ممدوج ناقع</t>
+          <t>زياد ايهاب محمد ممدوح نافع</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>مللمى احمد عبدادرحيم مظ زابئة</t>
+          <t>سلمى احمد عبدالرحيم محمد</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ظ ابراهيم محمود ابراهيم عبدالمعطى</t>
+          <t>ابراهيم محمود ابراهيم عبد المعطى</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>يحي مصود تصب صمت</t>
+          <t>جنى ايمن وفائى مجمل عيسى</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14754</t>
+          <t>1210349</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14712020101893</t>
+          <t>14712021101568</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>سلمى محمد ابراهيم فتحى ابوريده</t>
+          <t>سلمى محمد ابرا هيم فتحى ابوريده</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ا مروان عمرو عبدالمجيد فؤاد احمد شكرى</t>
+          <t>مروان عمرو عبدالمجيد فؤاد احمد شكرى</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>خسن عمرو مصطفي محمد يوسسف</t>
+          <t>حسن عمرو مصطفي محمد يوسف</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>لأس سمح صبحي لقاو</t>
+          <t>احمل سامح صلاح مصيلحى</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>127460</t>
+          <t>4230138</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14712020102030</t>
+          <t>14712022101505</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>فهيم عبدالفتاح محمد احمد ثهيم عد</t>
+          <t>محمد احمد فهيم عبد الفتاح</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>احمد محمد حسين الكومى مطصر</t>
+          <t>احمد محمد حسين الكومى</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ايددبيج مر يوس</t>
+          <t>لينه بهيج محروس بهيج</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ظ جمانة عمرو مصطفى عبد الصالح عرابي</t>
+          <t>جمانة عمرو مصطفى عبا الصالح عرابي</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1470,72 +1470,6 @@
       <c r="D47" t="inlineStr">
         <is>
           <t>14712022101345</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ID47</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>مسيلحى احمد سامح صلاح</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>4230138</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>14712022101505</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ID48</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ادهم احمد محمود ممدوح شبانة</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1230157</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>14712023101281</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ID49</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>أجنى ايمن وفانى محمد عيسى</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1210349</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>14712021101568</t>
         </is>
       </c>
     </row>

--- a/Extracted_Results.xlsx
+++ b/Extracted_Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1473,6 +1473,182 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ID47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>مارلى رفعت فاروق عبد السيد</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1230236</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14712023101120</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ID48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>جمانه تيمور محمد البكرى احمد محمد</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1220006</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14712022100861</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ID49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>عبدالله سمير عبد المو جود عسكر</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1230204</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14712023101193</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ID50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>حمزة احمد محمد منير الجوهري</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1220169</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14712022101244</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ID51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>لوجينا شوقي أحمد شحاته</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1220138</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14712022101562</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ID52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>احمد وائل محمد جويد نحيله</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1220162</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14712022101210</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ID53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>محمد هشام ابرا هيم حسنين</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1220278</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14712022101414</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ID54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>يوسف عصام عبدا المنعم احمل منسي</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1220090</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14712022100101</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Extracted_Results.xlsx
+++ b/Extracted_Results.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14712020100041</t>
+          <t>14071200100041</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>يوسف محمد حمدى محمل عثمان</t>
+          <t>يوسف محمد حمدى محمد عثمان</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>نغم طارق مجمد احمد قاسم</t>
+          <t>نغم طارق محمد احمد قاسم</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>يوسف محمل حمزه محمد عبدالتواب</t>
+          <t>يوسف محمد حمزه محمد عبدالتواب</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>عبد الرحمن على السيد محما السيد الحديدى</t>
+          <t>عبد الرحمن على السيد محمد السيد الحديدى</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>فادى دامى نبيل داود</t>
+          <t>فادى سامي نبيل داود</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>مروان عمرو عبدالمجبد فزاد احمد نكرى</t>
+          <t>مروان عمرو عبدالمجيد فؤاد احمد شكرى</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>كريم دمد نجم الدين حمدي عفيفي</t>
+          <t>كريم مجمد نجم الدين حمدي عفيفي</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>عمر ابراهيم احمد ابرا اميم السروى</t>
+          <t>عمر ابراهيم احمد ابراهيم السروى</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14712019101774</t>
+          <t>14712019101776</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>احمد هشام سيل سالم</t>
+          <t>احمد هشام سيد سالم</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>مدمد عبدالر حيم مالم عبدالهادي</t>
+          <t>محمد عبدالر حيم سالم عبدالهادي</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>حسن حسام حسن حامد عبل الفتاح</t>
+          <t>حسن حسام حسن حامد عبد الفتاح</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>جنى ايمن وفائى مجمل عيسى</t>
+          <t>جنى ايمن وفائى محمد عيسى</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>سلمى محمد ابرا هيم فتحى ابوريده</t>
+          <t>سلمى محمد ابراهيم فتحى ابوريده</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>احمل سامح صلاح مصيلحى</t>
+          <t>احمد سامح صلاح مصيلحى</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>جمانة عمرو مصطفى عبا الصالح عرابي</t>
+          <t>جمانة عمرو مصطفى عبد الصالح عرابي</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>جمانه تيمور محمد البكرى احمد محمد</t>
+          <t>جمانة تيمور محمد البكرى احمد محمد</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>عبدالله سمير عبد المو جود عسكر</t>
+          <t>عبدالله سمير عبد الموجود عسكر</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>محمد هشام ابرا هيم حسنين</t>
+          <t>محمد هشام ابراهيم حسنين</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>يوسف عصام عبدا المنعم احمل منسي</t>
+          <t>يوسف عصام عبدالمنعم احمد منسي</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
